--- a/testsuites/TS_CA_Application/Authentification/AUTH_LoginUser.xlsx
+++ b/testsuites/TS_CA_Application/Authentification/AUTH_LoginUser.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_9248CACD84F5E813E97046798E3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB5FB52E-E32B-4346-95E3-7B624A0B5861}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Nga_TRAN\RobotFramework\RobotFramework_projet\testsuites\TS_CA_Application\Authentification\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7469091-617D-4345-810F-7CD7E97A9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,12 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>acd</t>
   </si>
   <si>
@@ -55,13 +52,19 @@
   </si>
   <si>
     <t>acial!gcd2018</t>
+  </si>
+  <si>
+    <t>${User}</t>
+  </si>
+  <si>
+    <t>${Password}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,52 +412,52 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -463,33 +466,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="2714839f-4f88-4c72-a282-54a84c1e23b4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="523e0cbf-836d-491d-a1be-e653d3a0da14">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2714839f-4f88-4c72-a282-54a84c1e23b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A3BA05A0EA6E444A1E72C78B5FBE69E" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="bd671efd26700aa73603923c0f52c7a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="523e0cbf-836d-491d-a1be-e653d3a0da14" xmlns:ns3="2714839f-4f88-4c72-a282-54a84c1e23b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91a411deee70e7aa1ea2d4798e4b4f77" ns2:_="" ns3:_="">
     <xsd:import namespace="523e0cbf-836d-491d-a1be-e653d3a0da14"/>
@@ -706,14 +682,67 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="2714839f-4f88-4c72-a282-54a84c1e23b4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="523e0cbf-836d-491d-a1be-e653d3a0da14">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2714839f-4f88-4c72-a282-54a84c1e23b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF67EAD5-DC6A-46D8-9C7D-C46D92006F28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462044CB-5F94-450D-AEFA-206E3702B7C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="523e0cbf-836d-491d-a1be-e653d3a0da14"/>
+    <ds:schemaRef ds:uri="2714839f-4f88-4c72-a282-54a84c1e23b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CB4F941-0D1E-438F-9B01-520120A476EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CB4F941-0D1E-438F-9B01-520120A476EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{462044CB-5F94-450D-AEFA-206E3702B7C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF67EAD5-DC6A-46D8-9C7D-C46D92006F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2714839f-4f88-4c72-a282-54a84c1e23b4"/>
+    <ds:schemaRef ds:uri="523e0cbf-836d-491d-a1be-e653d3a0da14"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>